--- a/frontend/src/assets/file/WSI_SkillMatrix.xlsx
+++ b/frontend/src/assets/file/WSI_SkillMatrix.xlsx
@@ -1,28 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA2D53-6BF8-43DF-B7D3-87E5EB2AC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Self-assessment" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -484,7 +472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,6 +888,21 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -918,24 +921,9 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -956,9 +944,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -996,9 +984,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,7 +1021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1056,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1241,28 +1229,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="G50" sqref="G50"/>
+      <selection pane="topRight" activeCell="A28" activeCellId="3" sqref="A78:V92 N77:V77 A77:L77 A28:V76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8" customWidth="1"/>
     <col min="3" max="3" width="21" style="8" customWidth="1"/>
-    <col min="4" max="102" width="12.7109375" style="8" customWidth="1"/>
-    <col min="103" max="103" width="12.7109375" style="30" customWidth="1"/>
-    <col min="104" max="104" width="13.7109375" customWidth="1"/>
-    <col min="115" max="115" width="9.140625" style="31"/>
-    <col min="116" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="102" width="12.6640625" style="8" customWidth="1"/>
+    <col min="103" max="103" width="12.6640625" style="30" customWidth="1"/>
+    <col min="104" max="104" width="13.6640625" customWidth="1"/>
+    <col min="105" max="114" width="8.88671875"/>
+    <col min="115" max="115" width="9.109375" style="31"/>
+    <col min="116" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="32">
         <v>0</v>
       </c>
@@ -1371,7 +1360,7 @@
       <c r="CX1" s="33"/>
       <c r="CY1" s="33"/>
     </row>
-    <row r="2" spans="1:103" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -1480,7 +1469,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="33"/>
     </row>
-    <row r="3" spans="1:103" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -1589,7 +1578,7 @@
       <c r="CX3" s="33"/>
       <c r="CY3" s="33"/>
     </row>
-    <row r="4" spans="1:103" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -1698,7 +1687,7 @@
       <c r="CX4" s="33"/>
       <c r="CY4" s="33"/>
     </row>
-    <row r="5" spans="1:103" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -1807,7 +1796,7 @@
       <c r="CX5" s="33"/>
       <c r="CY5" s="33"/>
     </row>
-    <row r="6" spans="1:103" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -1918,7 +1907,7 @@
       <c r="CX6" s="33"/>
       <c r="CY6" s="33"/>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -2023,134 +2012,134 @@
       <c r="CX7" s="33"/>
       <c r="CY7" s="33"/>
     </row>
-    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="51" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="49" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="57" t="s">
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="50" t="s">
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="58" t="s">
+      <c r="BA8" s="55"/>
+      <c r="BB8" s="55"/>
+      <c r="BC8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="BD8" s="58"/>
-      <c r="BE8" s="58"/>
-      <c r="BF8" s="58"/>
-      <c r="BG8" s="58"/>
-      <c r="BH8" s="58"/>
-      <c r="BI8" s="58"/>
-      <c r="BJ8" s="58"/>
-      <c r="BK8" s="58"/>
-      <c r="BL8" s="58"/>
-      <c r="BM8" s="58"/>
-      <c r="BN8" s="55" t="s">
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="52"/>
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="BO8" s="55"/>
-      <c r="BP8" s="55"/>
-      <c r="BQ8" s="55"/>
-      <c r="BR8" s="55"/>
-      <c r="BS8" s="55"/>
-      <c r="BT8" s="55"/>
-      <c r="BU8" s="55"/>
-      <c r="BV8" s="55"/>
-      <c r="BW8" s="55"/>
-      <c r="BX8" s="55"/>
-      <c r="BY8" s="55"/>
-      <c r="BZ8" s="55"/>
-      <c r="CA8" s="55"/>
-      <c r="CB8" s="55"/>
-      <c r="CC8" s="53" t="s">
+      <c r="BO8" s="49"/>
+      <c r="BP8" s="49"/>
+      <c r="BQ8" s="49"/>
+      <c r="BR8" s="49"/>
+      <c r="BS8" s="49"/>
+      <c r="BT8" s="49"/>
+      <c r="BU8" s="49"/>
+      <c r="BV8" s="49"/>
+      <c r="BW8" s="49"/>
+      <c r="BX8" s="49"/>
+      <c r="BY8" s="49"/>
+      <c r="BZ8" s="49"/>
+      <c r="CA8" s="49"/>
+      <c r="CB8" s="49"/>
+      <c r="CC8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="CD8" s="53"/>
-      <c r="CE8" s="53"/>
-      <c r="CF8" s="53"/>
-      <c r="CG8" s="53"/>
-      <c r="CH8" s="53"/>
-      <c r="CI8" s="53"/>
-      <c r="CJ8" s="53"/>
-      <c r="CK8" s="53"/>
-      <c r="CL8" s="53"/>
-      <c r="CM8" s="56" t="s">
+      <c r="CD8" s="58"/>
+      <c r="CE8" s="58"/>
+      <c r="CF8" s="58"/>
+      <c r="CG8" s="58"/>
+      <c r="CH8" s="58"/>
+      <c r="CI8" s="58"/>
+      <c r="CJ8" s="58"/>
+      <c r="CK8" s="58"/>
+      <c r="CL8" s="58"/>
+      <c r="CM8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="CN8" s="56"/>
-      <c r="CO8" s="56"/>
-      <c r="CP8" s="56"/>
-      <c r="CQ8" s="56"/>
-      <c r="CR8" s="56"/>
-      <c r="CS8" s="56"/>
-      <c r="CT8" s="56"/>
-      <c r="CU8" s="52" t="s">
+      <c r="CN8" s="50"/>
+      <c r="CO8" s="50"/>
+      <c r="CP8" s="50"/>
+      <c r="CQ8" s="50"/>
+      <c r="CR8" s="50"/>
+      <c r="CS8" s="50"/>
+      <c r="CT8" s="50"/>
+      <c r="CU8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="CV8" s="52"/>
-      <c r="CW8" s="52"/>
-      <c r="CX8" s="48" t="s">
+      <c r="CV8" s="57"/>
+      <c r="CW8" s="57"/>
+      <c r="CX8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="CY8" s="48"/>
+      <c r="CY8" s="53"/>
     </row>
-    <row r="9" spans="1:103" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -2766,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -3071,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3376,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3681,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3986,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -4291,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -4596,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -4901,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -5206,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -5511,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5816,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -6121,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -6426,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -6731,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -7036,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -7341,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -7646,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:115" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:115" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -7963,7 +7952,7 @@
       <c r="DJ27"/>
       <c r="DK27" s="40"/>
     </row>
-    <row r="28" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -8070,7 +8059,7 @@
       <c r="CZ28" s="22"/>
       <c r="DA28" s="22"/>
     </row>
-    <row r="29" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -8177,7 +8166,7 @@
       <c r="CZ29" s="22"/>
       <c r="DA29" s="22"/>
     </row>
-    <row r="30" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -8284,7 +8273,7 @@
       <c r="CZ30" s="22"/>
       <c r="DA30" s="22"/>
     </row>
-    <row r="31" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -8391,7 +8380,7 @@
       <c r="CZ31" s="22"/>
       <c r="DA31" s="22"/>
     </row>
-    <row r="32" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -8500,7 +8489,7 @@
       <c r="CZ32" s="22"/>
       <c r="DA32" s="22"/>
     </row>
-    <row r="33" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -8607,7 +8596,7 @@
       <c r="CZ33" s="22"/>
       <c r="DA33" s="22"/>
     </row>
-    <row r="34" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -8714,7 +8703,7 @@
       <c r="CZ34" s="22"/>
       <c r="DA34" s="22"/>
     </row>
-    <row r="35" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -8821,7 +8810,7 @@
       <c r="CZ35" s="22"/>
       <c r="DA35" s="22"/>
     </row>
-    <row r="36" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -8930,7 +8919,7 @@
       <c r="CZ36" s="22"/>
       <c r="DA36" s="22"/>
     </row>
-    <row r="37" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -9037,7 +9026,7 @@
       <c r="CZ37" s="22"/>
       <c r="DA37" s="22"/>
     </row>
-    <row r="38" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -9146,7 +9135,7 @@
       <c r="CZ38" s="22"/>
       <c r="DA38" s="22"/>
     </row>
-    <row r="39" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
@@ -9251,7 +9240,7 @@
       <c r="CX39" s="38"/>
       <c r="CY39" s="38"/>
     </row>
-    <row r="40" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -9356,7 +9345,7 @@
       <c r="CX40" s="38"/>
       <c r="CY40" s="38"/>
     </row>
-    <row r="41" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
@@ -9461,7 +9450,7 @@
       <c r="CX41" s="38"/>
       <c r="CY41" s="38"/>
     </row>
-    <row r="42" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
@@ -9566,7 +9555,7 @@
       <c r="CX42" s="38"/>
       <c r="CY42" s="38"/>
     </row>
-    <row r="43" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -9671,7 +9660,7 @@
       <c r="CX43" s="38"/>
       <c r="CY43" s="38"/>
     </row>
-    <row r="44" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -9776,7 +9765,7 @@
       <c r="CX44" s="38"/>
       <c r="CY44" s="38"/>
     </row>
-    <row r="45" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -9881,7 +9870,7 @@
       <c r="CX45" s="38"/>
       <c r="CY45" s="38"/>
     </row>
-    <row r="46" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -9986,7 +9975,7 @@
       <c r="CX46" s="38"/>
       <c r="CY46" s="38"/>
     </row>
-    <row r="47" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -10091,7 +10080,7 @@
       <c r="CX47" s="38"/>
       <c r="CY47" s="38"/>
     </row>
-    <row r="48" spans="1:105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -10196,7 +10185,7 @@
       <c r="CX48" s="38"/>
       <c r="CY48" s="38"/>
     </row>
-    <row r="49" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -10301,7 +10290,7 @@
       <c r="CX49" s="38"/>
       <c r="CY49" s="38"/>
     </row>
-    <row r="50" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -10406,7 +10395,7 @@
       <c r="CX50" s="38"/>
       <c r="CY50" s="38"/>
     </row>
-    <row r="51" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -10511,7 +10500,7 @@
       <c r="CX51" s="38"/>
       <c r="CY51" s="38"/>
     </row>
-    <row r="52" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -10619,7 +10608,7 @@
       <c r="DA52" s="22"/>
       <c r="DB52" s="22"/>
     </row>
-    <row r="53" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -10727,7 +10716,7 @@
       <c r="DA53" s="22"/>
       <c r="DB53" s="22"/>
     </row>
-    <row r="54" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -10835,7 +10824,7 @@
       <c r="DA54" s="22"/>
       <c r="DB54" s="22"/>
     </row>
-    <row r="55" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -10945,7 +10934,7 @@
       <c r="DA55" s="22"/>
       <c r="DB55" s="22"/>
     </row>
-    <row r="56" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -11053,7 +11042,7 @@
       <c r="DA56" s="22"/>
       <c r="DB56" s="22"/>
     </row>
-    <row r="57" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -11161,7 +11150,7 @@
       <c r="DA57" s="22"/>
       <c r="DB57" s="22"/>
     </row>
-    <row r="58" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -11269,7 +11258,7 @@
       <c r="DA58" s="22"/>
       <c r="DB58" s="22"/>
     </row>
-    <row r="59" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -11377,7 +11366,7 @@
       <c r="DA59" s="22"/>
       <c r="DB59" s="22"/>
     </row>
-    <row r="60" spans="1:115" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -11485,7 +11474,7 @@
       <c r="DA60" s="22"/>
       <c r="DB60" s="22"/>
     </row>
-    <row r="61" spans="1:115" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:115" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -11602,7 +11591,7 @@
       <c r="DJ61"/>
       <c r="DK61" s="44"/>
     </row>
-    <row r="62" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -11710,7 +11699,7 @@
       <c r="DA62" s="22"/>
       <c r="DB62" s="22"/>
     </row>
-    <row r="63" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -11818,7 +11807,7 @@
       <c r="DA63" s="22"/>
       <c r="DB63" s="22"/>
     </row>
-    <row r="64" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:115" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11923,7 +11912,7 @@
       <c r="CX64" s="4"/>
       <c r="CY64" s="26"/>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -12028,7 +12017,7 @@
       <c r="CX65" s="4"/>
       <c r="CY65" s="26"/>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -12133,7 +12122,7 @@
       <c r="CX66" s="5"/>
       <c r="CY66" s="27"/>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -12238,7 +12227,7 @@
       <c r="CX67" s="5"/>
       <c r="CY67" s="27"/>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -12343,7 +12332,7 @@
       <c r="CX68" s="5"/>
       <c r="CY68" s="27"/>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -12448,7 +12437,7 @@
       <c r="CX69" s="4"/>
       <c r="CY69" s="26"/>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -12553,7 +12542,7 @@
       <c r="CX70" s="5"/>
       <c r="CY70" s="27"/>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -12658,7 +12647,7 @@
       <c r="CX71" s="6"/>
       <c r="CY71" s="28"/>
     </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -12763,7 +12752,7 @@
       <c r="CX72" s="5"/>
       <c r="CY72" s="27"/>
     </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -12868,7 +12857,7 @@
       <c r="CX73" s="5"/>
       <c r="CY73" s="27"/>
     </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -12973,7 +12962,7 @@
       <c r="CX74" s="4"/>
       <c r="CY74" s="26"/>
     </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -13078,7 +13067,7 @@
       <c r="CX75" s="4"/>
       <c r="CY75" s="26"/>
     </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -13184,7 +13173,7 @@
       <c r="CY76" s="29"/>
       <c r="CZ76" s="23"/>
     </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -13290,7 +13279,7 @@
       <c r="CY77" s="27"/>
       <c r="CZ77" s="24"/>
     </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -13395,7 +13384,7 @@
       <c r="CX78" s="4"/>
       <c r="CY78" s="26"/>
     </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -13500,7 +13489,7 @@
       <c r="CX79" s="6"/>
       <c r="CY79" s="28"/>
     </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -13605,7 +13594,7 @@
       <c r="CX80" s="4"/>
       <c r="CY80" s="26"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -13710,7 +13699,7 @@
       <c r="CX81" s="6"/>
       <c r="CY81" s="28"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -13815,7 +13804,7 @@
       <c r="CX82" s="4"/>
       <c r="CY82" s="26"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -13920,7 +13909,7 @@
       <c r="CX83" s="4"/>
       <c r="CY83" s="26"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -14025,7 +14014,7 @@
       <c r="CX84" s="6"/>
       <c r="CY84" s="28"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -14130,7 +14119,7 @@
       <c r="CX85" s="6"/>
       <c r="CY85" s="28"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -14235,7 +14224,7 @@
       <c r="CX86" s="5"/>
       <c r="CY86" s="27"/>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -14340,7 +14329,7 @@
       <c r="CX87" s="5"/>
       <c r="CY87" s="27"/>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -14445,7 +14434,7 @@
       <c r="CX88" s="5"/>
       <c r="CY88" s="27"/>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -14550,7 +14539,7 @@
       <c r="CX89" s="5"/>
       <c r="CY89" s="27"/>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -14655,7 +14644,7 @@
       <c r="CX90" s="5"/>
       <c r="CY90" s="27"/>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -14760,7 +14749,7 @@
       <c r="CX91" s="6"/>
       <c r="CY91" s="28"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -14867,17 +14856,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="BN8:CB8"/>
-    <mergeCell ref="CM8:CT8"/>
-    <mergeCell ref="AO8:AY8"/>
-    <mergeCell ref="BC8:BM8"/>
     <mergeCell ref="CX8:CY8"/>
     <mergeCell ref="AE8:AN8"/>
     <mergeCell ref="AZ8:BB8"/>
     <mergeCell ref="H8:AD8"/>
     <mergeCell ref="CU8:CW8"/>
     <mergeCell ref="CC8:CL8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="BN8:CB8"/>
+    <mergeCell ref="CM8:CT8"/>
+    <mergeCell ref="AO8:AY8"/>
+    <mergeCell ref="BC8:BM8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
